--- a/ESP_Output_01.xlsx
+++ b/ESP_Output_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexo\Documents\_College\ME Project\ME_Project_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3040602-C932-40B3-AA60-B953356F207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834AFE78-1BFE-4B6E-983D-A79AE799F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="915" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,10 +179,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$98</c:f>
+              <c:f>Sheet1!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>235</c:v>
                 </c:pt>
@@ -245,245 +244,179 @@
                   <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9776</c:v>
+                  <c:v>10004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9802</c:v>
+                  <c:v>10029</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9828</c:v>
+                  <c:v>10053</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9854</c:v>
+                  <c:v>10078</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9879</c:v>
+                  <c:v>10103</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9905</c:v>
+                  <c:v>10128</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9929</c:v>
+                  <c:v>10152</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9940</c:v>
+                  <c:v>10177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9954</c:v>
+                  <c:v>10202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9965</c:v>
+                  <c:v>10227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9979</c:v>
+                  <c:v>10251</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10004</c:v>
+                  <c:v>10276</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10029</c:v>
+                  <c:v>10301</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10053</c:v>
+                  <c:v>10326</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10078</c:v>
+                  <c:v>10351</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10103</c:v>
+                  <c:v>10375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10128</c:v>
+                  <c:v>10400</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10152</c:v>
+                  <c:v>10425</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10177</c:v>
+                  <c:v>10449</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10202</c:v>
+                  <c:v>10474</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10227</c:v>
+                  <c:v>10499</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10251</c:v>
+                  <c:v>10524</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10276</c:v>
+                  <c:v>10548</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10301</c:v>
+                  <c:v>10573</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10326</c:v>
+                  <c:v>10598</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10351</c:v>
+                  <c:v>10622</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10375</c:v>
+                  <c:v>10647</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10400</c:v>
+                  <c:v>10672</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10425</c:v>
+                  <c:v>10696</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10449</c:v>
+                  <c:v>10721</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10474</c:v>
+                  <c:v>10745</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10499</c:v>
+                  <c:v>10770</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10524</c:v>
+                  <c:v>10795</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10548</c:v>
+                  <c:v>10820</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10573</c:v>
+                  <c:v>10845</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10598</c:v>
+                  <c:v>10869</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10622</c:v>
+                  <c:v>10894</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10647</c:v>
+                  <c:v>10919</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10672</c:v>
+                  <c:v>10943</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10696</c:v>
+                  <c:v>10968</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10721</c:v>
+                  <c:v>10992</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10745</c:v>
+                  <c:v>11016</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10770</c:v>
+                  <c:v>12822</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10795</c:v>
+                  <c:v>12849</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10820</c:v>
+                  <c:v>12874</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10845</c:v>
+                  <c:v>12899</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10869</c:v>
+                  <c:v>12924</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10894</c:v>
+                  <c:v>12949</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10919</c:v>
+                  <c:v>12974</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10943</c:v>
+                  <c:v>12999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10968</c:v>
+                  <c:v>13023</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10992</c:v>
+                  <c:v>13048</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11016</c:v>
+                  <c:v>13073</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12822</c:v>
+                  <c:v>13096</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12849</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12874</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12899</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12924</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>12949</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>12974</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>12999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>13023</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>13048</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>13073</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>13096</c:v>
-                </c:pt>
-                <c:pt idx="85">
                   <c:v>13171</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>19817</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>19844</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>19870</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>19896</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>19922</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>19947</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>19972</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>19997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>20022</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>20045</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>20345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$98</c:f>
+              <c:f>Sheet1!$B$2:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -707,72 +640,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1534,14 +1401,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1854,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1735,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>235</v>
       </c>
       <c r="B2">
@@ -1876,7 +1743,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>256</v>
       </c>
       <c r="B3">
@@ -1884,7 +1751,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>278</v>
       </c>
       <c r="B4">
@@ -1892,7 +1759,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>287</v>
       </c>
       <c r="B5">
@@ -1900,7 +1767,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>299</v>
       </c>
       <c r="B6">
@@ -1908,7 +1775,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>314</v>
       </c>
       <c r="B7">
@@ -1916,7 +1783,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>339</v>
       </c>
       <c r="B8">
@@ -1924,7 +1791,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>363</v>
       </c>
       <c r="B9">
@@ -1932,7 +1799,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>386</v>
       </c>
       <c r="B10">
@@ -1940,7 +1807,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>399</v>
       </c>
       <c r="B11">
@@ -1948,7 +1815,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>408</v>
       </c>
       <c r="B12">
@@ -1956,7 +1823,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>426</v>
       </c>
       <c r="B13">
@@ -1964,7 +1831,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>453</v>
       </c>
       <c r="B14">
@@ -1972,7 +1839,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>480</v>
       </c>
       <c r="B15">
@@ -1980,7 +1847,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>580</v>
       </c>
       <c r="B16">
@@ -1988,7 +1855,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>602</v>
       </c>
       <c r="B17">
@@ -1996,7 +1863,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>623</v>
       </c>
       <c r="B18">
@@ -2004,7 +1871,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>818</v>
       </c>
       <c r="B19">
@@ -2012,7 +1879,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>847</v>
       </c>
       <c r="B20">
@@ -2020,7 +1887,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>945</v>
       </c>
       <c r="B21">
@@ -2028,626 +1895,442 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>9776</v>
+      <c r="A22">
+        <v>10004</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>9802</v>
+      <c r="A23">
+        <v>10029</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>9828</v>
+      <c r="A24">
+        <v>10053</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>9854</v>
+      <c r="A25">
+        <v>10078</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>9879</v>
+      <c r="A26">
+        <v>10103</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>9905</v>
+      <c r="A27">
+        <v>10128</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>9929</v>
+      <c r="A28">
+        <v>10152</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9940</v>
+      <c r="A29">
+        <v>10177</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>9954</v>
+      <c r="A30">
+        <v>10202</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9965</v>
+      <c r="A31">
+        <v>10227</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>9979</v>
+      <c r="A32">
+        <v>10251</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>10004</v>
+      <c r="A33">
+        <v>10276</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>10029</v>
+      <c r="A34">
+        <v>10301</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>10053</v>
+      <c r="A35">
+        <v>10326</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>10078</v>
+      <c r="A36">
+        <v>10351</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>10103</v>
+      <c r="A37">
+        <v>10375</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>10128</v>
+      <c r="A38">
+        <v>10400</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>10152</v>
+      <c r="A39">
+        <v>10425</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>10177</v>
+      <c r="A40">
+        <v>10449</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>10202</v>
+      <c r="A41">
+        <v>10474</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>10227</v>
+      <c r="A42">
+        <v>10499</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>10251</v>
+      <c r="A43">
+        <v>10524</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>10276</v>
+      <c r="A44">
+        <v>10548</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>10301</v>
+      <c r="A45">
+        <v>10573</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>10326</v>
+      <c r="A46">
+        <v>10598</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>10351</v>
+      <c r="A47">
+        <v>10622</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>10375</v>
+      <c r="A48">
+        <v>10647</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>10400</v>
+      <c r="A49">
+        <v>10672</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>10425</v>
+      <c r="A50">
+        <v>10696</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>10449</v>
+      <c r="A51">
+        <v>10721</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>10474</v>
+      <c r="A52">
+        <v>10745</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>10499</v>
+      <c r="A53">
+        <v>10770</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>10524</v>
+      <c r="A54">
+        <v>10795</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>10548</v>
+      <c r="A55">
+        <v>10820</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>10573</v>
+      <c r="A56">
+        <v>10845</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>10598</v>
+      <c r="A57">
+        <v>10869</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>10622</v>
+      <c r="A58">
+        <v>10894</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>10647</v>
+      <c r="A59">
+        <v>10919</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>10672</v>
+      <c r="A60">
+        <v>10943</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>10696</v>
+      <c r="A61">
+        <v>10968</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>10721</v>
+      <c r="A62">
+        <v>10992</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>10745</v>
+      <c r="A63">
+        <v>11016</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>10770</v>
+      <c r="A64">
+        <v>12822</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>10795</v>
+      <c r="A65">
+        <v>12849</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>10820</v>
+      <c r="A66">
+        <v>12874</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>10845</v>
+      <c r="A67">
+        <v>12899</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>10869</v>
+      <c r="A68">
+        <v>12924</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>10894</v>
+      <c r="A69">
+        <v>12949</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>10919</v>
+      <c r="A70">
+        <v>12974</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>10943</v>
+      <c r="A71">
+        <v>12999</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>10968</v>
+      <c r="A72">
+        <v>13023</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>10992</v>
+      <c r="A73">
+        <v>13048</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>11016</v>
+      <c r="A74">
+        <v>13073</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>12822</v>
+      <c r="A75">
+        <v>13096</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>12849</v>
+      <c r="A76">
+        <v>13171</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>12874</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>12899</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>12924</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>12949</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>12974</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>12999</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>13023</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>13048</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>13073</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>13096</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>13171</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>19817</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>19844</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>19870</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>19896</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>19922</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>19947</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>19972</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>19997</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>20022</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>20045</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>20345</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>-87494</v>
-      </c>
-      <c r="B99">
         <v>1</v>
       </c>
     </row>
